--- a/KEY.xlsx
+++ b/KEY.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sagah/Desktop/BN_paper/code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Radhika/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F409D94B-6018-3544-B9CF-187C0B45D6C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2616AB7C-1FE6-C643-A875-5D41F4231BE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="460" windowWidth="20420" windowHeight="15940" activeTab="1" xr2:uid="{5DC4C420-CE25-B645-A7DE-1708EDEA5BE2}"/>
+    <workbookView xWindow="1560" yWindow="460" windowWidth="20420" windowHeight="15940" xr2:uid="{5DC4C420-CE25-B645-A7DE-1708EDEA5BE2}"/>
   </bookViews>
   <sheets>
     <sheet name="AUC" sheetId="1" r:id="rId1"/>
     <sheet name="COMBO" sheetId="2" r:id="rId2"/>
-    <sheet name="nod_gene" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="104">
   <si>
     <t>DRUG</t>
   </si>
@@ -345,75 +344,6 @@
   </si>
   <si>
     <t>NUMBER</t>
-  </si>
-  <si>
-    <t>DRD2</t>
-  </si>
-  <si>
-    <t>EGFR</t>
-  </si>
-  <si>
-    <t>XIAP</t>
-  </si>
-  <si>
-    <t>JAK</t>
-  </si>
-  <si>
-    <t>mTORc2, mTORc1</t>
-  </si>
-  <si>
-    <t>PDGFR, KIT</t>
-  </si>
-  <si>
-    <t>CDK4</t>
-  </si>
-  <si>
-    <t>KIT</t>
-  </si>
-  <si>
-    <t>PDGFR</t>
-  </si>
-  <si>
-    <t>ROCK</t>
-  </si>
-  <si>
-    <t>FLT1</t>
-  </si>
-  <si>
-    <t>FLT1, KIT</t>
-  </si>
-  <si>
-    <t>IGF1R</t>
-  </si>
-  <si>
-    <t>Syk</t>
-  </si>
-  <si>
-    <t>EGFR, ERBB2</t>
-  </si>
-  <si>
-    <t>HDAC</t>
-  </si>
-  <si>
-    <t>BCL2</t>
-  </si>
-  <si>
-    <t>IDH, MGMT</t>
-  </si>
-  <si>
-    <t>Fasl</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>nodes_gene</t>
-  </si>
-  <si>
-    <t>PARP1</t>
-  </si>
-  <si>
-    <t>mTORc2,mTORc1</t>
   </si>
 </sst>
 </file>
@@ -776,7 +706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D8891E-2E20-CC49-8DC5-524FD4D55B22}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1300,10 +1230,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C0DCD6-EAEB-A648-B086-07C513BE2E91}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1311,12 +1241,11 @@
     <col min="1" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
-    <col min="6" max="6" width="43.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1330,16 +1259,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -1352,17 +1278,14 @@
       <c r="D2" s="2">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1375,17 +1298,14 @@
       <c r="D3">
         <v>53</v>
       </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3">
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1398,17 +1318,14 @@
       <c r="D4">
         <v>27</v>
       </c>
-      <c r="E4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1421,17 +1338,14 @@
       <c r="D5">
         <v>24</v>
       </c>
-      <c r="E5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1444,17 +1358,14 @@
       <c r="D6">
         <v>131</v>
       </c>
-      <c r="E6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1467,17 +1378,14 @@
       <c r="D7">
         <v>45</v>
       </c>
-      <c r="E7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7">
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1490,17 +1398,14 @@
       <c r="D8">
         <v>53</v>
       </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8">
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1514,16 +1419,13 @@
         <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
-      </c>
-      <c r="F9" t="s">
         <v>97</v>
       </c>
-      <c r="G9">
+      <c r="F9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1537,16 +1439,13 @@
         <v>91</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
-      </c>
-      <c r="F10" t="s">
         <v>97</v>
       </c>
-      <c r="G10">
+      <c r="F10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1559,17 +1458,14 @@
       <c r="D11">
         <v>31</v>
       </c>
-      <c r="E11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11">
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1582,17 +1478,14 @@
       <c r="D12">
         <v>121</v>
       </c>
-      <c r="E12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12">
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1605,17 +1498,14 @@
       <c r="D13">
         <v>26</v>
       </c>
-      <c r="E13" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13">
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1628,17 +1518,14 @@
       <c r="D14">
         <v>25</v>
       </c>
-      <c r="E14" t="s">
-        <v>112</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14">
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1651,17 +1538,14 @@
       <c r="D15">
         <v>38</v>
       </c>
-      <c r="E15" t="s">
-        <v>113</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15">
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1675,16 +1559,13 @@
         <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
-      </c>
-      <c r="F16" t="s">
         <v>97</v>
       </c>
-      <c r="G16">
+      <c r="F16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1697,17 +1578,14 @@
       <c r="D17">
         <v>115</v>
       </c>
-      <c r="E17" t="s">
-        <v>125</v>
-      </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17">
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1720,17 +1598,14 @@
       <c r="D18">
         <v>26</v>
       </c>
-      <c r="E18" t="s">
-        <v>111</v>
-      </c>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18">
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1743,17 +1618,14 @@
       <c r="D19">
         <v>121</v>
       </c>
-      <c r="E19" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19">
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1766,17 +1638,14 @@
       <c r="D20">
         <v>28</v>
       </c>
-      <c r="E20" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20">
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -1789,17 +1658,14 @@
       <c r="D21">
         <v>30</v>
       </c>
-      <c r="E21" t="s">
-        <v>117</v>
-      </c>
-      <c r="F21" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21">
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1813,16 +1679,13 @@
         <v>93</v>
       </c>
       <c r="E22" t="s">
-        <v>118</v>
-      </c>
-      <c r="F22" t="s">
         <v>97</v>
       </c>
-      <c r="G22">
+      <c r="F22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1835,17 +1698,14 @@
       <c r="D23">
         <v>19</v>
       </c>
-      <c r="E23" t="s">
-        <v>114</v>
-      </c>
-      <c r="F23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23">
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -1859,16 +1719,13 @@
         <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>126</v>
-      </c>
-      <c r="F24" t="s">
         <v>97</v>
       </c>
-      <c r="G24">
+      <c r="F24">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -1881,17 +1738,14 @@
       <c r="D25">
         <v>27</v>
       </c>
-      <c r="E25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25">
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -1904,17 +1758,14 @@
       <c r="D26">
         <v>12</v>
       </c>
-      <c r="E26" t="s">
-        <v>119</v>
-      </c>
-      <c r="F26" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26">
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -1927,17 +1778,14 @@
       <c r="D27">
         <v>24</v>
       </c>
-      <c r="E27" t="s">
-        <v>105</v>
-      </c>
-      <c r="F27" t="b">
-        <v>0</v>
-      </c>
-      <c r="G27">
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -1951,16 +1799,13 @@
         <v>91</v>
       </c>
       <c r="E28" t="s">
-        <v>109</v>
-      </c>
-      <c r="F28" t="s">
         <v>97</v>
       </c>
-      <c r="G28">
+      <c r="F28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -1973,17 +1818,14 @@
       <c r="D29">
         <v>133</v>
       </c>
-      <c r="E29" t="s">
-        <v>120</v>
-      </c>
-      <c r="F29" t="b">
-        <v>0</v>
-      </c>
-      <c r="G29">
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -1996,17 +1838,14 @@
       <c r="D30">
         <v>32</v>
       </c>
-      <c r="E30" t="s">
-        <v>73</v>
-      </c>
-      <c r="F30" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30">
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>74</v>
       </c>
@@ -2020,16 +1859,13 @@
         <v>90</v>
       </c>
       <c r="E31" t="s">
-        <v>108</v>
-      </c>
-      <c r="F31" t="s">
         <v>97</v>
       </c>
-      <c r="G31">
+      <c r="F31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>76</v>
       </c>
@@ -2043,16 +1879,13 @@
         <v>94</v>
       </c>
       <c r="E32" t="s">
-        <v>121</v>
-      </c>
-      <c r="F32" t="s">
         <v>98</v>
       </c>
-      <c r="G32">
+      <c r="F32">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>77</v>
       </c>
@@ -2065,17 +1898,14 @@
       <c r="D33" s="1">
         <v>124</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F33" s="1" t="b">
+      <c r="E33" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G33">
+      <c r="F33">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -2088,17 +1918,14 @@
       <c r="D34">
         <v>76</v>
       </c>
-      <c r="E34" t="s">
-        <v>80</v>
-      </c>
-      <c r="F34" t="b">
+      <c r="E34" t="b">
         <v>1</v>
       </c>
-      <c r="G34">
+      <c r="F34">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>82</v>
       </c>
@@ -2112,16 +1939,13 @@
         <v>95</v>
       </c>
       <c r="E35" t="s">
-        <v>88</v>
-      </c>
-      <c r="F35" t="s">
         <v>99</v>
       </c>
-      <c r="G35">
+      <c r="F35">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>83</v>
       </c>
@@ -2135,16 +1959,13 @@
         <v>96</v>
       </c>
       <c r="E36" t="s">
-        <v>89</v>
-      </c>
-      <c r="F36" t="s">
         <v>100</v>
       </c>
-      <c r="G36">
+      <c r="F36">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>84</v>
       </c>
@@ -2157,17 +1978,14 @@
       <c r="D37">
         <v>81</v>
       </c>
-      <c r="E37" t="s">
-        <v>87</v>
-      </c>
-      <c r="F37" t="b">
-        <v>0</v>
-      </c>
-      <c r="G37">
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>85</v>
       </c>
@@ -2181,28 +1999,13 @@
         <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>123</v>
-      </c>
-      <c r="F38" t="s">
         <v>98</v>
       </c>
-      <c r="G38">
+      <c r="F38">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4218D7-66D3-E34B-8397-988901AF3E59}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>